--- a/medicine/Médecine vétérinaire/Albert_Henry_(vétérinaire)/Albert_Henry_(vétérinaire).xlsx
+++ b/medicine/Médecine vétérinaire/Albert_Henry_(vétérinaire)/Albert_Henry_(vétérinaire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Albert_Henry_(v%C3%A9t%C3%A9rinaire)</t>
+          <t>Albert_Henry_(vétérinaire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Charles Lucien Henry, né le 4 février 1878 à Stenay et décédé le 15 décembre 1943 à Saint-Maurice est un médecin vétérinaire français.
-Entré à Alfort en 1895, il est diplômé en 1899. Il devient alors répétiteur d'histoire naturelle à Lyon le 20 novembre 1900, puis rejoint l'École vétérinaire d'Alfort à la suite d'une permutation par arrêté du 26 décembre 1901[2]. Il succède ensuite à Alcide Railliet à la chaire de parasitologie de l'École vétérinaire d'Alfort et c'est Jean Guilhon qui lui succède[3].
+Entré à Alfort en 1895, il est diplômé en 1899. Il devient alors répétiteur d'histoire naturelle à Lyon le 20 novembre 1900, puis rejoint l'École vétérinaire d'Alfort à la suite d'une permutation par arrêté du 26 décembre 1901. Il succède ensuite à Alcide Railliet à la chaire de parasitologie de l'École vétérinaire d'Alfort et c'est Jean Guilhon qui lui succède.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Albert_Henry_(v%C3%A9t%C3%A9rinaire)</t>
+          <t>Albert_Henry_(vétérinaire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Railliet A. et Henry A., 1909, « Sur la classification des Strongylidae. I. Metastrongylinae », Comptes rendus hebdomadaires des séances et mémoires de la Société de biologie, vol. 66, p. 85-88 (lire en ligne).</t>
         </is>
